--- a/input/unicl.xlsx
+++ b/input/unicl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Library/Mobile Documents/com~apple~CloudDocs/Research/CVPR2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF4D81-9C48-1143-BBC7-507EF2584EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCB8B1-340B-084C-B8AA-8975D7013B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19420" xr2:uid="{32123199-82DE-4F44-98B8-550E7ABB68F9}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <t>Image Contrastive</t>
   </si>
   <si>
-    <t>Ours Loss</t>
-  </si>
-  <si>
-    <t>Image-Text-Contrastive</t>
-  </si>
-  <si>
-    <t>UniC Loss</t>
+    <t>Our Loss</t>
+  </si>
+  <si>
+    <t>Image-Text Contrastive</t>
+  </si>
+  <si>
+    <t>UniCL Loss</t>
   </si>
 </sst>
 </file>
